--- a/src/main/resources/DSAlgoExcelsheets/TestDataforScenarios.xlsx
+++ b/src/main/resources/DSAlgoExcelsheets/TestDataforScenarios.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SahanaNUMPYNINJASDET\workspace\DsAlgoQuestersTestNG\src\main\resources\DSAlgoExcelsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SahanaNUMPYNINJASDET\workspace\DSAlgoTestng\DsAlgoQuestersTestng\src\main\resources\DSAlgoExcelsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B5BCFBB-AA56-481F-AD0B-05920ADF705B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460FE0EC-DC50-4654-849D-7B88C5C4C6D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6020" yWindow="350" windowWidth="14400" windowHeight="8170" tabRatio="941" firstSheet="6" activeTab="7" xr2:uid="{0C61E60E-59C0-4640-95B2-AE707670B7A1}"/>
+    <workbookView xWindow="2600" yWindow="1460" windowWidth="14490" windowHeight="8230" tabRatio="941" activeTab="8" xr2:uid="{0C61E60E-59C0-4640-95B2-AE707670B7A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,12 @@
     <sheet name="LinkedList" sheetId="5" r:id="rId4"/>
     <sheet name="Stack" sheetId="6" r:id="rId5"/>
     <sheet name="Queue" sheetId="7" r:id="rId6"/>
-    <sheet name="Tree" sheetId="8" r:id="rId7"/>
-    <sheet name="Sheet2" sheetId="18" r:id="rId8"/>
-    <sheet name="Graph" sheetId="9" r:id="rId9"/>
-    <sheet name="tryEditor" sheetId="10" r:id="rId10"/>
-    <sheet name="Search the array" sheetId="11" r:id="rId11"/>
-    <sheet name="Max Consecutive Ones" sheetId="12" r:id="rId12"/>
+    <sheet name="tryEditor" sheetId="10" r:id="rId7"/>
+    <sheet name="Tree" sheetId="8" r:id="rId8"/>
+    <sheet name="testdataformethods" sheetId="18" r:id="rId9"/>
+    <sheet name="Graph" sheetId="9" r:id="rId10"/>
+    <sheet name="Max Consecutive Ones" sheetId="12" r:id="rId11"/>
+    <sheet name="Search the array" sheetId="11" r:id="rId12"/>
     <sheet name="Find Numbers with Even Number" sheetId="13" r:id="rId13"/>
     <sheet name="Signin" sheetId="15" r:id="rId14"/>
     <sheet name="Squares of  a Sorted Array" sheetId="14" r:id="rId15"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="131">
   <si>
     <t>Arrays</t>
   </si>
@@ -475,29 +475,59 @@
     <t>code</t>
   </si>
   <si>
-    <t>testcase</t>
-  </si>
-  <si>
-    <t>errormessage</t>
-  </si>
-  <si>
-    <t>Tc1</t>
-  </si>
-  <si>
-    <t>message not valid</t>
-  </si>
-  <si>
-    <t>Tc2</t>
-  </si>
-  <si>
-    <t>https://dsportalapp.herokuapp.com/login</t>
+    <t>https://dsportalapp.herokuapp.com/graph/graph/</t>
+  </si>
+  <si>
+    <t>https://dsportalapp.herokuapp.com/graph/graph-representations/</t>
+  </si>
+  <si>
+    <t>navigateToGraphOption</t>
+  </si>
+  <si>
+    <t>TestCaseName</t>
+  </si>
+  <si>
+    <t>navigatetoGraphRepresentation</t>
+  </si>
+  <si>
+    <t>navigateToGraphModuleTryEditor</t>
+  </si>
+  <si>
+    <t>https://dsportalapp.herokuapp.com/tryEditor</t>
+  </si>
+  <si>
+    <t>navigateToGraphRepresentationTryEditor</t>
+  </si>
+  <si>
+    <t>navigateToGraphPracticeQuestions</t>
+  </si>
+  <si>
+    <t>https://dsportalapp.herokuapp.com/graph/practice</t>
+  </si>
+  <si>
+    <t>navigateToGraphRepresentationPracticeQuestions</t>
+  </si>
+  <si>
+    <t>verifyValidCodeExecutionforGraphPage</t>
+  </si>
+  <si>
+    <t>verifyInValidCodeExecutionforGraphPage</t>
+  </si>
+  <si>
+    <t>verifyValidCodeExecutionforGraphRepresentationPage</t>
+  </si>
+  <si>
+    <t>verifyInValidCodeExecutionforGraphRepresentationPage</t>
+  </si>
+  <si>
+    <t>expectedurl/expectedmessages</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -566,6 +596,23 @@
       <color rgb="FF467886"/>
       <name val="Aptos Narrow"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF6A3E3E"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -611,7 +658,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -640,6 +687,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1030,44 +1080,76 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA0E64C-D73D-4916-9D42-8E0DB79F5F30}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1577733D-C777-46F0-BC94-652458A6D059}">
+  <dimension ref="A2:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{759B0BF3-0D63-4ED3-8FB9-A8A1C5D7E30D}">
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.08984375" customWidth="1"/>
-    <col min="2" max="2" width="48.08984375" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="44.6328125" customWidth="1"/>
-    <col min="5" max="5" width="43.453125" customWidth="1"/>
+    <col min="1" max="1" width="37.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>114</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>13</v>
+    <row r="2" spans="1:2" ht="203" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="203" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="203" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1075,7 +1157,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89D10C25-BCC6-4F95-9FC1-2E6FCB100ED4}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -1116,57 +1198,6 @@
     <row r="4" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{759B0BF3-0D63-4ED3-8FB9-A8A1C5D7E30D}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="37.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.7265625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="203" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="203" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="203" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
-        <v>68</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>67</v>
@@ -1233,7 +1264,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1943,6 +1974,84 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA0E64C-D73D-4916-9D42-8E0DB79F5F30}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="78" customWidth="1"/>
+    <col min="2" max="2" width="17.08984375" customWidth="1"/>
+    <col min="3" max="3" width="48.08984375" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="44.6328125" customWidth="1"/>
+    <col min="6" max="6" width="43.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+      <c r="A2" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+      <c r="A3" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+      <c r="A4" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+      <c r="A5" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E00AFEE4-CD9A-4103-8AD7-4D2E09BEC97B}">
   <dimension ref="A1:B16"/>
   <sheetViews>
@@ -2096,74 +2205,89 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD7C01EB-FE93-416E-A7E1-0CD31428622C}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="41.26953125" customWidth="1"/>
+    <col min="1" max="1" width="72.36328125" customWidth="1"/>
+    <col min="2" max="2" width="66.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.4">
+      <c r="A3" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.4">
+      <c r="A4" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.4">
+      <c r="A5" s="17" t="s">
         <v>120</v>
+      </c>
+      <c r="B5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="18" x14ac:dyDescent="0.4">
+      <c r="A6" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="18" x14ac:dyDescent="0.4">
+      <c r="A7" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="18" x14ac:dyDescent="0.4">
+      <c r="A8" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{1E6FD945-BEFF-41F1-BC0A-F740377E9BCE}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{54EB68A2-9F58-4808-85F3-25BB2C58AF54}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{D6FEBF95-5ACE-48D1-B5F9-3723DF022724}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1577733D-C777-46F0-BC94-652458A6D059}">
-  <dimension ref="A2:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="24" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/src/main/resources/DSAlgoExcelsheets/TestDataforScenarios.xlsx
+++ b/src/main/resources/DSAlgoExcelsheets/TestDataforScenarios.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SahanaNUMPYNINJASDET\workspace\DsAlgoQuestersTestNG\src\main\resources\DSAlgoExcelsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SahanaNUMPYNINJASDET\workspace\DSAlgoTestng\DsAlgoQuestersTestng\src\main\resources\DSAlgoExcelsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B5BCFBB-AA56-481F-AD0B-05920ADF705B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A523B16F-18E9-4F23-B0E1-F9BB78F5030C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6020" yWindow="350" windowWidth="14400" windowHeight="8170" tabRatio="941" firstSheet="6" activeTab="7" xr2:uid="{0C61E60E-59C0-4640-95B2-AE707670B7A1}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="16670" windowHeight="11370" tabRatio="941" firstSheet="11" activeTab="15" xr2:uid="{0C61E60E-59C0-4640-95B2-AE707670B7A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
@@ -20,15 +20,15 @@
     <sheet name="Stack" sheetId="6" r:id="rId5"/>
     <sheet name="Queue" sheetId="7" r:id="rId6"/>
     <sheet name="Tree" sheetId="8" r:id="rId7"/>
-    <sheet name="Sheet2" sheetId="18" r:id="rId8"/>
-    <sheet name="Graph" sheetId="9" r:id="rId9"/>
-    <sheet name="tryEditor" sheetId="10" r:id="rId10"/>
-    <sheet name="Search the array" sheetId="11" r:id="rId11"/>
-    <sheet name="Max Consecutive Ones" sheetId="12" r:id="rId12"/>
-    <sheet name="Find Numbers with Even Number" sheetId="13" r:id="rId13"/>
-    <sheet name="Signin" sheetId="15" r:id="rId14"/>
-    <sheet name="Squares of  a Sorted Array" sheetId="14" r:id="rId15"/>
-    <sheet name="Register" sheetId="16" r:id="rId16"/>
+    <sheet name="Graph" sheetId="9" r:id="rId8"/>
+    <sheet name="testdataformethods" sheetId="10" r:id="rId9"/>
+    <sheet name="Search the array" sheetId="11" r:id="rId10"/>
+    <sheet name="Max Consecutive Ones" sheetId="12" r:id="rId11"/>
+    <sheet name="Find Numbers with Even Number" sheetId="13" r:id="rId12"/>
+    <sheet name="Signin" sheetId="15" r:id="rId13"/>
+    <sheet name="Squares of  a Sorted Array" sheetId="14" r:id="rId14"/>
+    <sheet name="Register" sheetId="16" r:id="rId15"/>
+    <sheet name="tryeditor" sheetId="17" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="131">
   <si>
     <t>Arrays</t>
   </si>
@@ -475,22 +475,52 @@
     <t>code</t>
   </si>
   <si>
-    <t>testcase</t>
-  </si>
-  <si>
-    <t>errormessage</t>
-  </si>
-  <si>
-    <t>Tc1</t>
-  </si>
-  <si>
-    <t>message not valid</t>
-  </si>
-  <si>
-    <t>Tc2</t>
-  </si>
-  <si>
-    <t>https://dsportalapp.herokuapp.com/login</t>
+    <t>TestCaseName</t>
+  </si>
+  <si>
+    <t>navigateToGraphOption</t>
+  </si>
+  <si>
+    <t>navigatetoGraphRepresentation</t>
+  </si>
+  <si>
+    <t>navigateToGraphModuleTryEditor</t>
+  </si>
+  <si>
+    <t>navigateToGraphRepresentationTryEditor</t>
+  </si>
+  <si>
+    <t>navigateToGraphPracticeQuestions</t>
+  </si>
+  <si>
+    <t>navigateToGraphRepresentationPracticeQuestions</t>
+  </si>
+  <si>
+    <t>expectedurl/expectedmessages</t>
+  </si>
+  <si>
+    <t>https://dsportalapp.herokuapp.com/graph/graph/</t>
+  </si>
+  <si>
+    <t>https://dsportalapp.herokuapp.com/graph/graph-representations/</t>
+  </si>
+  <si>
+    <t>https://dsportalapp.herokuapp.com/tryEditor</t>
+  </si>
+  <si>
+    <t>https://dsportalapp.herokuapp.com/graph/practice</t>
+  </si>
+  <si>
+    <t>verifyValidCodeExecutionforGraphPage</t>
+  </si>
+  <si>
+    <t>verifyInValidCodeExecutionforGraphPage</t>
+  </si>
+  <si>
+    <t>verifyValidCodeExecutionforGraphRepresentationPage</t>
+  </si>
+  <si>
+    <t>verifyInValidCodeExecutionforGraphRepresentationPage</t>
   </si>
 </sst>
 </file>
@@ -1030,52 +1060,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA0E64C-D73D-4916-9D42-8E0DB79F5F30}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="17.08984375" customWidth="1"/>
-    <col min="2" max="2" width="48.08984375" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="44.6328125" customWidth="1"/>
-    <col min="5" max="5" width="43.453125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89D10C25-BCC6-4F95-9FC1-2E6FCB100ED4}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -1126,7 +1110,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{759B0BF3-0D63-4ED3-8FB9-A8A1C5D7E30D}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -1177,7 +1161,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{857496CA-14D4-4F59-AD9C-0CF7F103AF4D}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -1228,7 +1212,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BB66AB7-42FC-4383-BAF3-F5C40D76F432}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -1302,7 +1286,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0024F72-2E55-4BB5-BDE8-04A1B026ED6F}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -1353,7 +1337,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BE3E3E0-7470-4F24-A27C-02E56DBA36F2}">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -1452,6 +1436,81 @@
     <hyperlink ref="C5" r:id="rId4" xr:uid="{0CEF64AF-48BF-4C56-9B7C-E3050B8619D0}"/>
     <hyperlink ref="C7" r:id="rId5" xr:uid="{951C153C-4392-4A51-B396-BD19C4E6DFD7}"/>
   </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD49B03A-983D-4342-B903-4579C1DED283}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="48.7265625" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="3" max="3" width="44.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2097,51 +2156,6 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD7C01EB-FE93-416E-A7E1-0CD31428622C}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="41.26953125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{1E6FD945-BEFF-41F1-BC0A-F740377E9BCE}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1577733D-C777-46F0-BC94-652458A6D059}">
   <dimension ref="A2:A3"/>
   <sheetViews>
@@ -2166,4 +2180,90 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA0E64C-D73D-4916-9D42-8E0DB79F5F30}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="57.90625" customWidth="1"/>
+    <col min="2" max="2" width="63.453125" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="44.6328125" customWidth="1"/>
+    <col min="5" max="5" width="43.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/resources/DSAlgoExcelsheets/TestDataforScenarios.xlsx
+++ b/src/main/resources/DSAlgoExcelsheets/TestDataforScenarios.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SahanaNUMPYNINJASDET\workspace\DsAlgoQuestersTestNG\src\main\resources\DSAlgoExcelsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\shaalu\Eclipse Workspace\TestNGDsAlgo\DsAlgoQuestersTestng\src\main\resources\DSAlgoExcelsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B5BCFBB-AA56-481F-AD0B-05920ADF705B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CFD9A05-F4EB-45C7-9467-1AD873029936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6020" yWindow="350" windowWidth="14400" windowHeight="8170" tabRatio="941" firstSheet="6" activeTab="7" xr2:uid="{0C61E60E-59C0-4640-95B2-AE707670B7A1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="941" firstSheet="6" activeTab="13" xr2:uid="{0C61E60E-59C0-4640-95B2-AE707670B7A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
@@ -42,8 +42,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -51,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="120">
   <si>
     <t>Arrays</t>
   </si>
@@ -221,12 +219,6 @@
   </si>
   <si>
     <t>Awesome@2025</t>
-  </si>
-  <si>
-    <t>qquesters</t>
-  </si>
-  <si>
-    <t>awesome</t>
   </si>
   <si>
     <t>Arrays in Python</t>
@@ -491,6 +483,9 @@
   </si>
   <si>
     <t>https://dsportalapp.herokuapp.com/login</t>
+  </si>
+  <si>
+    <t>qquesters</t>
   </si>
 </sst>
 </file>
@@ -983,42 +978,42 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.36328125" customWidth="1"/>
+    <col min="1" max="1" width="37.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1037,24 +1032,24 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.08984375" customWidth="1"/>
-    <col min="2" max="2" width="48.08984375" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="2" max="2" width="48.109375" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="44.6328125" customWidth="1"/>
-    <col min="5" max="5" width="43.453125" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="43.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1062,7 +1057,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1083,13 +1078,13 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.54296875" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" customWidth="1"/>
+    <col min="1" max="1" width="32.5546875" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -1097,7 +1092,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>37</v>
       </c>
@@ -1105,20 +1100,20 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1134,13 +1129,13 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -1148,28 +1143,28 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="203" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B2" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="203" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="203" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1185,13 +1180,13 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.453125" customWidth="1"/>
-    <col min="2" max="2" width="28.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.44140625" customWidth="1"/>
+    <col min="2" max="2" width="28.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -1199,28 +1194,28 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="174" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="174" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="174" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1230,20 +1225,20 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BB66AB7-42FC-4383-BAF3-F5C40D76F432}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="15.6328125" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -1251,7 +1246,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1259,44 +1254,18 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>119</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{D630A7C5-4499-4774-85AF-D14D954469F3}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{DDEEAF8E-C9D3-442D-B2D0-8309EDD12721}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{9E01009C-8763-4F55-804F-F239312B85D5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1310,13 +1279,13 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.7265625" customWidth="1"/>
-    <col min="2" max="2" width="29.54296875" customWidth="1"/>
+    <col min="1" max="1" width="34.77734375" customWidth="1"/>
+    <col min="2" max="2" width="29.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -1324,28 +1293,28 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="174" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="174" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1361,14 +1330,14 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.26953125" customWidth="1"/>
+    <col min="1" max="1" width="12.21875" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>11</v>
       </c>
@@ -1376,17 +1345,17 @@
         <v>38</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
@@ -1395,23 +1364,23 @@
       </c>
       <c r="C3" s="7"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>12</v>
       </c>
@@ -1422,9 +1391,9 @@
         <v>14953</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>54</v>
@@ -1433,15 +1402,15 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1464,13 +1433,13 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="46.453125" customWidth="1"/>
+    <col min="2" max="2" width="46.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1478,7 +1447,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1486,7 +1455,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1494,7 +1463,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1502,7 +1471,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1510,7 +1479,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1518,7 +1487,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1539,13 +1508,13 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.54296875" customWidth="1"/>
-    <col min="2" max="2" width="61.36328125" customWidth="1"/>
+    <col min="1" max="1" width="32.5546875" customWidth="1"/>
+    <col min="2" max="2" width="61.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -1553,61 +1522,61 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>57</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>58</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
@@ -1617,39 +1586,39 @@
       <c r="G190" s="3"/>
       <c r="H190" s="3"/>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B199" s="3"/>
     </row>
   </sheetData>
@@ -1666,14 +1635,14 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.36328125" customWidth="1"/>
-    <col min="2" max="2" width="75.90625" customWidth="1"/>
-    <col min="3" max="3" width="60.54296875" customWidth="1"/>
+    <col min="1" max="1" width="32.33203125" customWidth="1"/>
+    <col min="2" max="2" width="75.88671875" customWidth="1"/>
+    <col min="3" max="3" width="60.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -1684,7 +1653,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -1695,7 +1664,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -1706,7 +1675,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -1717,7 +1686,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -1728,7 +1697,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -1739,7 +1708,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -1750,7 +1719,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -1777,14 +1746,14 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.7265625" customWidth="1"/>
-    <col min="2" max="2" width="55.08984375" customWidth="1"/>
-    <col min="3" max="3" width="45.08984375" customWidth="1"/>
+    <col min="1" max="1" width="21.77734375" customWidth="1"/>
+    <col min="2" max="2" width="55.109375" customWidth="1"/>
+    <col min="3" max="3" width="45.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -1795,7 +1764,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -1806,7 +1775,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -1817,7 +1786,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -1841,93 +1810,93 @@
       <selection activeCell="B1" sqref="B1:B1000"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.1796875" customWidth="1"/>
-    <col min="2" max="2" width="53.453125" customWidth="1"/>
+    <col min="1" max="1" width="41.21875" customWidth="1"/>
+    <col min="2" max="2" width="53.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>24</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="13" t="s">
+      <c r="B4" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="13" t="s">
+      <c r="B5" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
     </row>
@@ -1950,129 +1919,129 @@
       <selection activeCell="B1" sqref="B1:B1000"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.26953125" customWidth="1"/>
-    <col min="2" max="2" width="71.1796875" customWidth="1"/>
+    <col min="1" max="1" width="34.21875" customWidth="1"/>
+    <col min="2" max="2" width="71.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>24</v>
       </c>
       <c r="B1" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B4" s="14" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="13" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B5" s="15" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="13" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B6" s="14" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="13" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="13" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B8" s="14" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="13" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B9" s="14" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="13" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B10" s="14" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="13" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B11" s="14" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="13" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B12" s="14" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="13" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B13" s="14" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="13" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B14" s="15" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
     </row>
@@ -2100,37 +2069,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD7C01EB-FE93-416E-A7E1-0CD31428622C}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="41.26953125" customWidth="1"/>
+    <col min="2" max="2" width="41.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>115</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>117</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" s="2" t="s">
         <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2147,17 +2116,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>

--- a/src/main/resources/DSAlgoExcelsheets/TestDataforScenarios.xlsx
+++ b/src/main/resources/DSAlgoExcelsheets/TestDataforScenarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\shaalu\Eclipse Workspace\TestNGDsAlgo\DsAlgoQuestersTestng\src\main\resources\DSAlgoExcelsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CFD9A05-F4EB-45C7-9467-1AD873029936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5746FB6-468F-46A6-BB7C-A3612A0C38F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="941" firstSheet="6" activeTab="13" xr2:uid="{0C61E60E-59C0-4640-95B2-AE707670B7A1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="941" firstSheet="6" activeTab="15" xr2:uid="{0C61E60E-59C0-4640-95B2-AE707670B7A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
@@ -26,9 +26,11 @@
     <sheet name="Search the array" sheetId="11" r:id="rId11"/>
     <sheet name="Max Consecutive Ones" sheetId="12" r:id="rId12"/>
     <sheet name="Find Numbers with Even Number" sheetId="13" r:id="rId13"/>
-    <sheet name="Signin" sheetId="15" r:id="rId14"/>
-    <sheet name="Squares of  a Sorted Array" sheetId="14" r:id="rId15"/>
-    <sheet name="Register" sheetId="16" r:id="rId16"/>
+    <sheet name="Squares of  a Sorted Array" sheetId="14" r:id="rId14"/>
+    <sheet name="Signin" sheetId="19" r:id="rId15"/>
+    <sheet name="Sheet3" sheetId="21" r:id="rId16"/>
+    <sheet name="Sheet1" sheetId="20" r:id="rId17"/>
+    <sheet name="Register" sheetId="16" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="126">
   <si>
     <t>Arrays</t>
   </si>
@@ -487,12 +489,30 @@
   <si>
     <t>qquesters</t>
   </si>
+  <si>
+    <t>You are logged in</t>
+  </si>
+  <si>
+    <t>Invalid Username and Password</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>Please fill out this field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Result </t>
+  </si>
+  <si>
+    <t>password_mismatch:The two password fields didn’t match.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -561,6 +581,12 @@
       <color rgb="FF467886"/>
       <name val="Aptos Narrow"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF004085"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -571,7 +597,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,18 +611,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -606,7 +626,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -620,21 +640,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1224,54 +1247,6 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BB66AB7-42FC-4383-BAF3-F5C40D76F432}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{D630A7C5-4499-4774-85AF-D14D954469F3}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{9E01009C-8763-4F55-804F-F239312B85D5}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0024F72-2E55-4BB5-BDE8-04A1B026ED6F}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -1322,12 +1297,356 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BE3E3E0-7470-4F24-A27C-02E56DBA36F2}">
-  <dimension ref="A1:C8"/>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{698E6E01-E9B8-4A90-B4E4-AF4B7BC03A1C}">
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{BE8916CA-5476-4FD3-AC45-480FBA59C829}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{F720CB9B-3BA3-4A22-9072-C7A28E4C58EB}"/>
+    <hyperlink ref="B6" r:id="rId3" xr:uid="{9743B897-61F9-4A0C-994A-B75CC1EA9C8C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A071BFB-8B0C-4984-B879-456CD474E61D}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="51.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="14">
+        <v>14953</v>
+      </c>
+      <c r="C7" s="14">
+        <v>14953</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{93FFAC98-6B22-4D88-ABB0-6BFE933327E2}"/>
+    <hyperlink ref="B6" r:id="rId2" xr:uid="{06B9C69E-5D24-4FF0-BBD6-ABFC3B884C55}"/>
+    <hyperlink ref="B8" r:id="rId3" xr:uid="{751CEDE8-9D9A-471D-8BA5-FAEB5CF21E2A}"/>
+    <hyperlink ref="C6" r:id="rId4" xr:uid="{2BCC79F6-D8E2-401E-BBE1-E9D35E4A0F9E}"/>
+    <hyperlink ref="C8" r:id="rId5" xr:uid="{41EF1ACB-B4CB-42A8-BEB7-3AA0A4E62325}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{381A14DE-4EB8-4304-8E17-CA2984E43447}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" customWidth="1"/>
+    <col min="4" max="4" width="50" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="14">
+        <v>14953</v>
+      </c>
+      <c r="C6" s="14">
+        <v>14953</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{57540907-7415-4748-AA69-EF0691E96028}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{38289495-78E6-42F9-BBD1-AA90B0512FEB}"/>
+    <hyperlink ref="B7" r:id="rId3" xr:uid="{A9286779-B04C-4003-B400-61AB273C61C8}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{9BE38520-8ADC-4431-B5C2-7BCD7C19199E}"/>
+    <hyperlink ref="C7" r:id="rId5" xr:uid="{A45C95C8-19E9-4130-A30A-6E530FE87F90}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BE3E3E0-7470-4F24-A27C-02E56DBA36F2}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1335,81 +1654,93 @@
     <col min="1" max="1" width="12.21875" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
+    <col min="4" max="4" width="50.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="12" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="D1" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="D2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="7"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="D3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="15" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+      <c r="D5" s="16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="14">
         <v>14953</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="14">
         <v>14953</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="13" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1817,88 +2148,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="8" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="9" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="9" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="9" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="9" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1926,124 +2257,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="8" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="9" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="9" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="9" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="10" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="9" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="9" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="9" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="9" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="9" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="9" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="9" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="9" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="10" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/src/main/resources/DSAlgoExcelsheets/TestDataforScenarios.xlsx
+++ b/src/main/resources/DSAlgoExcelsheets/TestDataforScenarios.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{16F4688E-CF74-47B7-8109-D6DE4B8E45DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{77EFB8F3-9D0A-41F5-B252-C1A9848B335A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <sheet name="Register" sheetId="18" r:id="rId18"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:E15"/>
+  <oleSize ref="A1:H18"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId22" roundtripDataChecksum="yBmWevlfiJTrace/zDdn79NsVq92fsBgbETvIFMhLTE="/>
@@ -3949,7 +3949,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -11331,7 +11333,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -18021,7 +18023,7 @@
   </sheetPr>
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>

--- a/src/main/resources/DSAlgoExcelsheets/TestDataforScenarios.xlsx
+++ b/src/main/resources/DSAlgoExcelsheets/TestDataforScenarios.xlsx
@@ -1,33 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vaishali\NN_Workspace\DsAlgo_Quester\TestNGDsAlgoQuester\DsAlgoQuestersTestng\src\main\resources\DSAlgoExcelsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SahanaNUMPYNINJASDET\workspace\DSAlgoTestng\DsAlgoQuestersTestng\src\main\resources\DSAlgoExcelsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39D2BFF0-12B7-4ED0-9474-056576F294FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE8A05C8-DB79-486C-962E-C4F4DF2BA0C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-36240" yWindow="4875" windowWidth="28800" windowHeight="11175" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QueueTryEditor" sheetId="8" r:id="rId1"/>
     <sheet name="TreeTryEditor" sheetId="9" r:id="rId2"/>
     <sheet name="tryEditor" sheetId="12" r:id="rId3"/>
-    <sheet name="Signin" sheetId="22" r:id="rId4"/>
-    <sheet name="Register" sheetId="23" r:id="rId5"/>
-    <sheet name="ArrayTryEditor" sheetId="19" r:id="rId6"/>
-    <sheet name="PracticeQuestionRun" sheetId="20" r:id="rId7"/>
-    <sheet name="PracticeQuestionSubmit" sheetId="21" r:id="rId8"/>
+    <sheet name="tryedit" sheetId="24" r:id="rId4"/>
+    <sheet name="Signin" sheetId="22" r:id="rId5"/>
+    <sheet name="Register" sheetId="23" r:id="rId6"/>
+    <sheet name="ArrayTryEditor" sheetId="19" r:id="rId7"/>
+    <sheet name="PracticeQuestionRun" sheetId="20" r:id="rId8"/>
+    <sheet name="PracticeQuestionSubmit" sheetId="21" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="67">
   <si>
     <t>Options</t>
   </si>
@@ -661,14 +662,14 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="34.28515625" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="3" width="41.85546875" customWidth="1"/>
+    <col min="1" max="1" width="34.26953125" customWidth="1"/>
+    <col min="2" max="2" width="26.26953125" customWidth="1"/>
+    <col min="3" max="3" width="41.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -679,7 +680,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -690,7 +691,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -701,7 +702,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -712,7 +713,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -723,7 +724,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -734,7 +735,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -745,7 +746,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -756,7 +757,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -780,18 +781,18 @@
   </sheetPr>
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
-    <col min="3" max="3" width="47.140625" customWidth="1"/>
+    <col min="2" max="2" width="24.26953125" customWidth="1"/>
+    <col min="3" max="3" width="47.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -802,7 +803,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -813,7 +814,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -824,7 +825,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -835,7 +836,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -846,7 +847,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -857,7 +858,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -868,7 +869,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -879,7 +880,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -890,7 +891,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -901,7 +902,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -912,7 +913,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
@@ -923,7 +924,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
@@ -934,7 +935,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
@@ -945,7 +946,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
@@ -956,7 +957,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
@@ -967,7 +968,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -978,7 +979,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -989,7 +990,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
@@ -1000,7 +1001,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
@@ -1011,7 +1012,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>18</v>
       </c>
@@ -1022,7 +1023,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>19</v>
       </c>
@@ -1033,7 +1034,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>19</v>
       </c>
@@ -1044,7 +1045,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>20</v>
       </c>
@@ -1055,7 +1056,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>20</v>
       </c>
@@ -1066,7 +1067,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>21</v>
       </c>
@@ -1077,7 +1078,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>21</v>
       </c>
@@ -1098,21 +1099,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="2" max="2" width="48.140625" customWidth="1"/>
+    <col min="1" max="1" width="17.1796875" customWidth="1"/>
+    <col min="2" max="2" width="48.1796875" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="43.42578125" customWidth="1"/>
-    <col min="6" max="26" width="8.7109375" customWidth="1"/>
+    <col min="4" max="4" width="44.7265625" customWidth="1"/>
+    <col min="5" max="5" width="43.453125" customWidth="1"/>
+    <col min="6" max="26" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -1120,7 +1121,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -1128,7 +1129,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -1136,1003 +1137,1003 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="22" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="23" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="24" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="27" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="29" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="31" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="36" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="37" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="38" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="40" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="42" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="44" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="47" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="48" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="52" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="53" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="54" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="55" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="56" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="57" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="58" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="59" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="60" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="61" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="62" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="63" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="64" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="69" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="70" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="71" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="73" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="74" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="75" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="76" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="77" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="78" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="79" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="80" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -2140,6 +2141,1050 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0A0E34F-D73F-49A8-BD69-A2BACFA073BD}">
+  <dimension ref="A1:B1000"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.1796875" customWidth="1"/>
+    <col min="2" max="2" width="48.1796875" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="44.7265625" customWidth="1"/>
+    <col min="5" max="5" width="43.453125" customWidth="1"/>
+    <col min="6" max="26" width="8.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="22" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="23" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="24" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="27" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="29" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="31" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="36" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="37" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="38" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="40" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="42" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="44" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="47" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="48" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="52" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="53" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="54" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="55" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="56" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="57" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="58" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="59" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="60" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="61" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="62" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="63" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="64" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="69" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="70" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="71" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="73" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="74" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="75" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="76" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="77" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="78" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="79" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="80" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAA97586-BB12-4888-A7E7-BAC261074912}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -2147,9 +3192,9 @@
       <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>34</v>
       </c>
@@ -2160,7 +3205,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>36</v>
       </c>
@@ -2171,7 +3216,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>38</v>
       </c>
@@ -2182,7 +3227,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>36</v>
       </c>
@@ -2193,7 +3238,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>38</v>
       </c>
@@ -2204,7 +3249,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
       <c r="B6" s="8" t="s">
         <v>37</v>
@@ -2213,7 +3258,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>36</v>
       </c>
@@ -2232,7 +3277,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{708E6974-AFCA-4DD1-86F3-86F82096F7A6}">
   <dimension ref="A1:D8"/>
   <sheetViews>
@@ -2240,9 +3285,9 @@
       <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>34</v>
       </c>
@@ -2256,7 +3301,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.45">
       <c r="A2" s="9" t="s">
         <v>36</v>
       </c>
@@ -2270,7 +3315,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>36</v>
       </c>
@@ -2280,7 +3325,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>36</v>
       </c>
@@ -2292,7 +3337,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="9"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -2300,7 +3345,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.45">
       <c r="A6" s="9" t="s">
         <v>36</v>
       </c>
@@ -2314,7 +3359,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.45">
       <c r="A7" s="9" t="s">
         <v>36</v>
       </c>
@@ -2328,7 +3373,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.45">
       <c r="A8" s="9" t="s">
         <v>44</v>
       </c>
@@ -2354,7 +3399,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9F082F2-6884-41F4-9638-0FF5D3482E5B}">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -2362,13 +3407,13 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2379,7 +3424,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2390,7 +3435,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2401,7 +3446,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2412,7 +3457,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -2423,7 +3468,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -2434,7 +3479,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -2445,7 +3490,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -2456,7 +3501,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -2472,7 +3517,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F4B5D40-799F-49D8-9768-C1DF925C9792}">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -2480,15 +3525,15 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="37.5703125" customWidth="1"/>
+    <col min="1" max="1" width="37.54296875" customWidth="1"/>
     <col min="2" max="2" width="41" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="68.85546875" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="68.81640625" customWidth="1"/>
+    <col min="4" max="4" width="28.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2502,7 +3547,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2516,7 +3561,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2530,7 +3575,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -2544,7 +3589,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -2558,7 +3603,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -2572,7 +3617,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="174" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -2586,7 +3631,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="145" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -2600,7 +3645,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="145" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -2619,7 +3664,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72D9789D-046D-461F-B370-B1D69F8F27CD}">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -2627,16 +3672,16 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="33.42578125" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.28515625" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="1" max="1" width="33.453125" customWidth="1"/>
+    <col min="2" max="2" width="28.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.26953125" customWidth="1"/>
+    <col min="4" max="4" width="25.7265625" customWidth="1"/>
     <col min="5" max="5" width="41" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2650,7 +3695,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2665,7 +3710,7 @@
       </c>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2680,7 +3725,7 @@
       </c>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -2695,7 +3740,7 @@
       </c>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>1</v>
       </c>

--- a/src/main/resources/DSAlgoExcelsheets/TestDataforScenarios.xlsx
+++ b/src/main/resources/DSAlgoExcelsheets/TestDataforScenarios.xlsx
@@ -3,14 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vaishali\NN_Workspace\DsAlgo_Quester\TestNGDsAlgoQuester\DsAlgoQuestersTestng\src\main\resources\DSAlgoExcelsheets\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39D2BFF0-12B7-4ED0-9474-056576F294FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{3B301BC1-0E7D-4FBF-838D-55E0129440D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QueueTryEditor" sheetId="8" r:id="rId1"/>
@@ -21,13 +16,15 @@
     <sheet name="ArrayTryEditor" sheetId="19" r:id="rId6"/>
     <sheet name="PracticeQuestionRun" sheetId="20" r:id="rId7"/>
     <sheet name="PracticeQuestionSubmit" sheetId="21" r:id="rId8"/>
+    <sheet name="LinkedListTryEditor" sheetId="25" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:P28"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="74">
   <si>
     <t>Options</t>
   </si>
@@ -295,6 +292,27 @@
   </si>
   <si>
     <t>password_mismatch:The two password fields didn’t match.</t>
+  </si>
+  <si>
+    <t>Introduction</t>
+  </si>
+  <si>
+    <t>Creating Linked LIst</t>
+  </si>
+  <si>
+    <t>Types of Linked List</t>
+  </si>
+  <si>
+    <t>Implement Linked List in Python</t>
+  </si>
+  <si>
+    <t>Traversal</t>
+  </si>
+  <si>
+    <t>Insertion</t>
+  </si>
+  <si>
+    <t>Deletion</t>
   </si>
 </sst>
 </file>
@@ -657,8 +675,8 @@
   </sheetPr>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -780,8 +798,8 @@
   </sheetPr>
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView topLeftCell="B12" workbookViewId="0">
+      <selection activeCell="D12" sqref="D1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1098,8 +1116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2144,7 +2162,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+      <selection activeCell="D1" sqref="D1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2237,7 +2255,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2359,7 +2377,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D1" sqref="D1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2476,8 +2494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F4B5D40-799F-49D8-9768-C1DF925C9792}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="C6" workbookViewId="0">
+      <selection activeCell="E6" sqref="E1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2624,7 +2642,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2712,4 +2730,189 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE843AAB-C147-48FC-BDFF-92D4B82C4A9C}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/resources/DSAlgoExcelsheets/TestDataforScenarios.xlsx
+++ b/src/main/resources/DSAlgoExcelsheets/TestDataforScenarios.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vaishali\NN_Workspace\DsAlgo_Quester\TestNGDsAlgoQuester\DsAlgoQuestersTestng\src\main\resources\DSAlgoExcelsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\shaalu\Eclipse Workspace\TestNGDsAlgo\DsAlgoQuestersTestng\src\main\resources\DSAlgoExcelsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39D2BFF0-12B7-4ED0-9474-056576F294FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B25D28F-7E65-4E46-BE85-8AC81D2D6C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QueueTryEditor" sheetId="8" r:id="rId1"/>
@@ -657,18 +657,18 @@
   </sheetPr>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.28515625" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="3" width="41.85546875" customWidth="1"/>
+    <col min="1" max="1" width="34.33203125" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
+    <col min="3" max="3" width="41.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -679,7 +679,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -690,7 +690,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -701,7 +701,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -712,7 +712,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -723,7 +723,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -734,7 +734,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -745,7 +745,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -756,7 +756,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -780,18 +780,18 @@
   </sheetPr>
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
-    <col min="3" max="3" width="47.140625" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="47.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -802,7 +802,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -813,7 +813,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -824,7 +824,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -835,7 +835,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -846,7 +846,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -857,7 +857,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -868,7 +868,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -879,7 +879,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -890,7 +890,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -901,7 +901,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -912,7 +912,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
@@ -923,7 +923,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
@@ -934,7 +934,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
@@ -945,7 +945,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
@@ -956,7 +956,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
@@ -967,7 +967,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -978,7 +978,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -989,7 +989,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
@@ -1000,7 +1000,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
@@ -1011,7 +1011,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>18</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>19</v>
       </c>
@@ -1033,7 +1033,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>19</v>
       </c>
@@ -1044,7 +1044,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>20</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>20</v>
       </c>
@@ -1066,7 +1066,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>21</v>
       </c>
@@ -1077,7 +1077,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>21</v>
       </c>
@@ -1102,17 +1102,17 @@
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="2" max="2" width="48.140625" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="2" max="2" width="48.109375" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="43.42578125" customWidth="1"/>
-    <col min="6" max="26" width="8.7109375" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="43.44140625" customWidth="1"/>
+    <col min="6" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -1136,1003 +1136,1003 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -2147,9 +2147,12 @@
       <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>34</v>
       </c>
@@ -2160,7 +2163,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>36</v>
       </c>
@@ -2171,7 +2174,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>38</v>
       </c>
@@ -2182,7 +2185,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>36</v>
       </c>
@@ -2193,7 +2196,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>38</v>
       </c>
@@ -2204,7 +2207,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="8" t="s">
         <v>37</v>
@@ -2213,7 +2216,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>36</v>
       </c>
@@ -2236,13 +2239,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{708E6974-AFCA-4DD1-86F3-86F82096F7A6}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>34</v>
       </c>
@@ -2256,7 +2259,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>36</v>
       </c>
@@ -2270,7 +2273,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>36</v>
       </c>
@@ -2280,7 +2283,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>36</v>
       </c>
@@ -2292,7 +2295,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="9"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -2300,7 +2303,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>36</v>
       </c>
@@ -2314,7 +2317,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>36</v>
       </c>
@@ -2328,7 +2331,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>44</v>
       </c>
@@ -2362,13 +2365,13 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2379,7 +2382,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2390,7 +2393,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2401,7 +2404,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2412,7 +2415,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -2423,7 +2426,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -2434,7 +2437,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -2445,7 +2448,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -2456,7 +2459,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -2480,15 +2483,15 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.5703125" customWidth="1"/>
+    <col min="1" max="1" width="37.5546875" customWidth="1"/>
     <col min="2" max="2" width="41" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="68.85546875" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="68.88671875" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2502,7 +2505,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2516,7 +2519,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2530,7 +2533,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -2544,7 +2547,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -2558,7 +2561,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -2572,7 +2575,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -2586,7 +2589,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="144" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -2600,7 +2603,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="144" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -2627,16 +2630,16 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.42578125" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.28515625" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="1" max="1" width="33.44140625" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.33203125" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
     <col min="5" max="5" width="41" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2650,7 +2653,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2665,7 +2668,7 @@
       </c>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2680,7 +2683,7 @@
       </c>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -2695,7 +2698,7 @@
       </c>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="144" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
